--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H2">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I2">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J2">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>0.1317988551413333</v>
+        <v>0.4516425869339999</v>
       </c>
       <c r="R2">
-        <v>1.186189696272</v>
+        <v>4.064783282405999</v>
       </c>
       <c r="S2">
-        <v>0.00102216765095605</v>
+        <v>0.003076335519222081</v>
       </c>
       <c r="T2">
-        <v>0.00102216765095605</v>
+        <v>0.003076335519222081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H3">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I3">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J3">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>1.520742763981333</v>
+        <v>1.860261458286</v>
       </c>
       <c r="R3">
-        <v>13.686684875832</v>
+        <v>16.742353124574</v>
       </c>
       <c r="S3">
-        <v>0.01179413931251759</v>
+        <v>0.01267105575232519</v>
       </c>
       <c r="T3">
-        <v>0.01179413931251759</v>
+        <v>0.01267105575232518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H4">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I4">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J4">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>1.791270553589333</v>
+        <v>2.408643037416</v>
       </c>
       <c r="R4">
-        <v>16.121434982304</v>
+        <v>21.677787336744</v>
       </c>
       <c r="S4">
-        <v>0.01389222093033902</v>
+        <v>0.01640632292767515</v>
       </c>
       <c r="T4">
-        <v>0.01389222093033902</v>
+        <v>0.01640632292767515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H5">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I5">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J5">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>0.1756923153973333</v>
+        <v>0.114065893788</v>
       </c>
       <c r="R5">
-        <v>1.581230838576</v>
+        <v>1.026593044092</v>
       </c>
       <c r="S5">
-        <v>0.001362583924785562</v>
+        <v>0.0007769527735946581</v>
       </c>
       <c r="T5">
-        <v>0.001362583924785562</v>
+        <v>0.000776952773594658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>3.917689583162445</v>
+        <v>10.97476022845478</v>
       </c>
       <c r="R6">
-        <v>35.259206248462</v>
+        <v>98.772842056093</v>
       </c>
       <c r="S6">
-        <v>0.03038369001082684</v>
+        <v>0.07475389983689699</v>
       </c>
       <c r="T6">
-        <v>0.03038369001082683</v>
+        <v>0.07475389983689698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
         <v>45.20371651734411</v>
@@ -883,10 +883,10 @@
         <v>406.833448656097</v>
       </c>
       <c r="S7">
-        <v>0.3505779824678179</v>
+        <v>0.3079023164471271</v>
       </c>
       <c r="T7">
-        <v>0.3505779824678179</v>
+        <v>0.3079023164471271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.831823</v>
       </c>
       <c r="I8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>53.24509064132045</v>
+        <v>58.52920113452578</v>
       </c>
       <c r="R8">
-        <v>479.205815771884</v>
+        <v>526.762810210732</v>
       </c>
       <c r="S8">
-        <v>0.4129429589310004</v>
+        <v>0.3986680299219593</v>
       </c>
       <c r="T8">
-        <v>0.4129429589310004</v>
+        <v>0.3986680299219593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>12.831823</v>
       </c>
       <c r="I9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>5.222412236705111</v>
+        <v>2.771762165002889</v>
       </c>
       <c r="R9">
-        <v>47.001710130346</v>
+        <v>24.945859485026</v>
       </c>
       <c r="S9">
-        <v>0.04050248268539695</v>
+        <v>0.01887968638413707</v>
       </c>
       <c r="T9">
-        <v>0.04050248268539695</v>
+        <v>0.01887968638413707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H10">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>0.6456891518482222</v>
+        <v>2.288551312531333</v>
       </c>
       <c r="R10">
-        <v>5.811202366633999</v>
+        <v>20.596961812782</v>
       </c>
       <c r="S10">
-        <v>0.005007650202156564</v>
+        <v>0.01558832557863124</v>
       </c>
       <c r="T10">
-        <v>0.005007650202156564</v>
+        <v>0.01558832557863124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H11">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>7.450194498286554</v>
+        <v>9.426267418475332</v>
       </c>
       <c r="R11">
-        <v>67.05175048457899</v>
+        <v>84.836406766278</v>
       </c>
       <c r="S11">
-        <v>0.05778007556524679</v>
+        <v>0.0642064369305792</v>
       </c>
       <c r="T11">
-        <v>0.0577800755652468</v>
+        <v>0.0642064369305792</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H12">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>8.77552360555422</v>
+        <v>12.20501198108533</v>
       </c>
       <c r="R12">
-        <v>78.97971244998799</v>
+        <v>109.845107829768</v>
       </c>
       <c r="S12">
-        <v>0.06805868184651349</v>
+        <v>0.08313368348372936</v>
       </c>
       <c r="T12">
-        <v>0.06805868184651351</v>
+        <v>0.08313368348372936</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H13">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>0.8607253985135555</v>
+        <v>0.5779916653026667</v>
       </c>
       <c r="R13">
-        <v>7.746528586622</v>
+        <v>5.201924987723999</v>
       </c>
       <c r="S13">
-        <v>0.00667536647244287</v>
+        <v>0.003936954444122768</v>
       </c>
       <c r="T13">
-        <v>0.00667536647244287</v>
+        <v>0.003936954444122768</v>
       </c>
     </row>
   </sheetData>
